--- a/graph_codes/fig1.xlsx
+++ b/graph_codes/fig1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a15805713b69f46/Documents/GitHub/BigData_Project/graph_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048FCC1DA6C0A5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979773A4-AA9E-486F-969A-B9E0392EBB82}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC1048FCC1DA6C0A5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C46BF9-ED01-4A35-A2C5-A887CF470ECC}"/>
   <bookViews>
     <workbookView xWindow="6495" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>city name</t>
   </si>
@@ -97,6 +97,135 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>data.austintexas.gov</t>
+  </si>
+  <si>
+    <t>data.baltimorecity.gov</t>
+  </si>
+  <si>
+    <t>data.cityofchicago.org</t>
+  </si>
+  <si>
+    <t>data.cityofdeleon.org</t>
+  </si>
+  <si>
+    <t>data.edmonton.ca</t>
+  </si>
+  <si>
+    <t>data.nola.gov</t>
+  </si>
+  <si>
+    <t>data.sfgov.org</t>
+  </si>
+  <si>
+    <t>data.seattle.gov</t>
+  </si>
+  <si>
+    <t>data.cityofnewyork.us</t>
+  </si>
+  <si>
+    <t>data.honolulu.gov</t>
+  </si>
+  <si>
+    <t>data.somervillema.gov</t>
+  </si>
+  <si>
+    <t>data.cityofboston.gov</t>
+  </si>
+  <si>
+    <t>data.slcgov.com</t>
+  </si>
+  <si>
+    <t>data.oaklandnet.com</t>
+  </si>
+  <si>
+    <t>data.cityofmadison.com</t>
+  </si>
+  <si>
+    <t>data.kcmo.org</t>
+  </si>
+  <si>
+    <t>data.raleighnc.gov</t>
+  </si>
+  <si>
+    <t>data.redmond.gov</t>
+  </si>
+  <si>
+    <t>data.weatherfordtx.gov</t>
+  </si>
+  <si>
+    <t>data.wellingtonfl.gov</t>
+  </si>
+  <si>
+    <t>city name long</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>De Leon, TX</t>
+  </si>
+  <si>
+    <t>Wellington, FL</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>New Orleans, LA</t>
+  </si>
+  <si>
+    <t>Honolulu, HI</t>
+  </si>
+  <si>
+    <t>Weatherford, TX</t>
+  </si>
+  <si>
+    <t>Somerville, MA</t>
+  </si>
+  <si>
+    <t>Oakland, CA</t>
+  </si>
+  <si>
+    <t>Edmonton, AB</t>
+  </si>
+  <si>
+    <t>Raleigh, NC</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Kansas City, MO</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Redmond, WA</t>
+  </si>
+  <si>
+    <t>databases 2014</t>
   </si>
 </sst>
 </file>
@@ -418,18 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C4:D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +573,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -456,8 +596,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -470,8 +619,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -484,8 +642,17 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -498,13 +665,22 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2152</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1519000</v>
@@ -512,13 +688,22 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>369749</v>
@@ -526,13 +711,22 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>808437</v>
@@ -540,13 +734,22 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>749256</v>
@@ -554,13 +757,22 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>3441</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>8335897</v>
@@ -568,13 +780,22 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>995638</v>
@@ -582,13 +803,22 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>79762</v>
@@ -596,8 +826,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -610,8 +849,17 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -624,8 +872,17 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -638,8 +895,17 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -652,8 +918,17 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -666,8 +941,17 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -680,8 +964,17 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -694,8 +987,17 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -708,8 +1010,17 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -721,6 +1032,15 @@
       </c>
       <c r="D21">
         <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
